--- a/Data/EC/NIT-9013817902.xlsx
+++ b/Data/EC/NIT-9013817902.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{669143F0-21BB-4EC1-AF27-C38B71F22A3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B2D353C-A700-4B86-BC63-9408559013E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D0A0BC30-43D7-4483-97F0-2E21C302CDA7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6B0FDC3F-545E-47DA-A9E8-5FC6B3009235}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="31">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,6 +65,30 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1050944607</t>
+  </si>
+  <si>
+    <t>NELSON ENRIQUE BALDIRIS LUNA</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
     <t>1047468022</t>
   </si>
   <si>
@@ -72,24 +96,6 @@
   </si>
   <si>
     <t>2005</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2112</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -503,7 +509,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDEC9BB2-C626-63AB-A16C-AD5535B758C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE4A7CB1-9D06-EDA7-39F6-F75C837CE75D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -854,8 +860,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C215A6B7-8EF6-4C26-A4B6-252B6BD8BD09}">
-  <dimension ref="B2:J28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3233EF6-8949-4BB3-B42B-AA8D8BD65292}">
+  <dimension ref="B2:J34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -879,7 +885,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -924,7 +930,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -956,12 +962,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>214417</v>
+        <v>408703</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -972,14 +978,14 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C13" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F13" s="5">
         <v>7</v>
@@ -1009,13 +1015,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1032,10 +1038,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>15215</v>
+        <v>18726</v>
       </c>
       <c r="G16" s="18">
-        <v>877803</v>
+        <v>828116</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1055,10 +1061,10 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>36341</v>
+        <v>35112</v>
       </c>
       <c r="G17" s="18">
-        <v>877803</v>
+        <v>828116</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1078,10 +1084,10 @@
         <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>36341</v>
+        <v>35112</v>
       </c>
       <c r="G18" s="18">
-        <v>877803</v>
+        <v>828116</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1101,10 +1107,10 @@
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>36341</v>
+        <v>35112</v>
       </c>
       <c r="G19" s="18">
-        <v>877803</v>
+        <v>828116</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1124,10 +1130,10 @@
         <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>36341</v>
+        <v>35112</v>
       </c>
       <c r="G20" s="18">
-        <v>877803</v>
+        <v>828116</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1150,63 +1156,201 @@
         <v>35112</v>
       </c>
       <c r="G21" s="18">
-        <v>877803</v>
+        <v>828116</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="22" t="s">
+      <c r="C22" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="24">
+      <c r="D22" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="18">
         <v>18726</v>
       </c>
-      <c r="G22" s="24">
-        <v>877803</v>
-      </c>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="26"/>
+      <c r="G22" s="18">
+        <v>908526</v>
+      </c>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="20"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B23" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="18">
+        <v>35112</v>
+      </c>
+      <c r="G23" s="18">
+        <v>908526</v>
+      </c>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="20"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B24" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="18">
+        <v>36341</v>
+      </c>
+      <c r="G24" s="18">
+        <v>908526</v>
+      </c>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="20"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B25" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="18">
+        <v>36341</v>
+      </c>
+      <c r="G25" s="18">
+        <v>908526</v>
+      </c>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="20"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B26" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="18">
+        <v>36341</v>
+      </c>
+      <c r="G26" s="18">
+        <v>908526</v>
+      </c>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="20"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B27" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="32"/>
-      <c r="H27" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
+      <c r="B27" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="18">
+        <v>36341</v>
+      </c>
+      <c r="G27" s="18">
+        <v>908526</v>
+      </c>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="20"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B28" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="32"/>
-      <c r="H28" s="1" t="s">
+      <c r="B28" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" s="24">
+        <v>15215</v>
+      </c>
+      <c r="G28" s="24">
+        <v>908526</v>
+      </c>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="26"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B33" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="32"/>
+      <c r="H33" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B34" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
+      <c r="C34" s="32"/>
+      <c r="H34" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="H33:J33"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9013817902.xlsx
+++ b/Data/EC/NIT-9013817902.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B2D353C-A700-4B86-BC63-9408559013E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E5909D0-90A1-48A6-97A8-5B298EA0C381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6B0FDC3F-545E-47DA-A9E8-5FC6B3009235}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{378B9A4D-B6B2-4462-96CC-B222F7B4E8C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,37 +65,31 @@
     <t>CC</t>
   </si>
   <si>
-    <t>1050944607</t>
-  </si>
-  <si>
-    <t>NELSON ENRIQUE BALDIRIS LUNA</t>
+    <t>1047468022</t>
+  </si>
+  <si>
+    <t>YERSON ENRIQUE BALDIRIS LUNA</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
   </si>
   <si>
     <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>1047468022</t>
-  </si>
-  <si>
-    <t>YERSON ENRIQUE BALDIRIS LUNA</t>
-  </si>
-  <si>
-    <t>2005</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -194,22 +188,22 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -409,23 +403,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -453,10 +447,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -509,7 +503,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE4A7CB1-9D06-EDA7-39F6-F75C837CE75D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8E5271B-5817-241B-BBE7-5C007F30DA26}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -860,8 +854,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3233EF6-8949-4BB3-B42B-AA8D8BD65292}">
-  <dimension ref="B2:J34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF652FAD-07BF-4DBB-B48B-47C00C1C2555}">
+  <dimension ref="B2:J28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -885,7 +879,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -930,7 +924,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -962,12 +956,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>408703</v>
+        <v>214417</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -978,14 +972,14 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C13" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F13" s="5">
         <v>7</v>
@@ -1015,13 +1009,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I15" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" s="14" t="s">
         <v>25</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1038,10 +1032,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>18726</v>
+        <v>15215</v>
       </c>
       <c r="G16" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1061,10 +1055,10 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>35112</v>
+        <v>36341</v>
       </c>
       <c r="G17" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1084,10 +1078,10 @@
         <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>35112</v>
+        <v>36341</v>
       </c>
       <c r="G18" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1107,10 +1101,10 @@
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>35112</v>
+        <v>36341</v>
       </c>
       <c r="G19" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1130,10 +1124,10 @@
         <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>35112</v>
+        <v>36341</v>
       </c>
       <c r="G20" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1156,201 +1150,63 @@
         <v>35112</v>
       </c>
       <c r="G21" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="18">
+      <c r="F22" s="24">
         <v>18726</v>
       </c>
-      <c r="G22" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B23" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G23" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B24" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G24" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B25" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G25" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B26" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F26" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G26" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
+      <c r="G22" s="24">
+        <v>877803</v>
+      </c>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="26"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B27" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F27" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G27" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
+      <c r="B27" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="32"/>
+      <c r="H27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B28" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="E28" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="F28" s="24">
-        <v>15215</v>
-      </c>
-      <c r="G28" s="24">
-        <v>908526</v>
-      </c>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="26"/>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B33" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="C33" s="32"/>
-      <c r="H33" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B34" s="32" t="s">
+      <c r="B28" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="32"/>
+      <c r="H28" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="32"/>
-      <c r="H34" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="H27:J27"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
